--- a/medicine/Psychotrope/Bière_belge_d'Abbaye_reconnue/Bière_belge_d'Abbaye_reconnue.xlsx
+++ b/medicine/Psychotrope/Bière_belge_d'Abbaye_reconnue/Bière_belge_d'Abbaye_reconnue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une bière belge d'Abbaye reconnue (en néerlandais :  Erkend belgisch Abdijbier) est une bière belge jouissant d'une protection collective soumise à certaines conditions et ne pouvant être utilisée que par les membres de l’Union des Brasseries belges.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Logo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette protection se matérialise sous la forme d'un logo apposé sur l'étiquette de chaque  bière belge d'abbaye reconnue. Actuellement[Quand ?] une bonne vingtaine de marques de bières d'abbaye sont reconnues sur un total d'une cinquantaine de marques de bières d'abbaye brassées en Belgique. 
 Ce logo représente un verre de bière devant un vitrail stylisé surmonté par l'inscription bilingue Bière belge d'Abbaye reconnue - Erkend belgisch Abdijbier.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,15 +558,17 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les bières d’abbaye existantes au moment du dépôt de la marque soit avant le 12 juillet 1999, les brasseurs n’utiliseront la marque collective que quand les trois conditions suivantes seront remplies :
 Il y a un lien avec une abbaye existante ou n’existant plus actuellement.
 La brasserie doit payer des royalties destinées au financement d’œuvres caritatives ou culturelles en vue de préserver le patrimoine culturel de l’abbaye et liées à l’abbaye ou à une institution si l’abbaye n’existe plus.
-L’abbaye ou l’institution existante exerce un droit de contrôle en matière de publicité[1].
+L’abbaye ou l’institution existante exerce un droit de contrôle en matière de publicité.
 Pour les nouvelles bières d’abbaye (commercialisées à partir du 12 juillet 1999) :
 Soit la bière est brassée dans une abbaye existante non-trappiste ou une abbaye existante fait brasser sous sa responsabilité et en licence la bière dans une brasserie laïque et aide à commercialiser la bière
-Soit la bière est brassée par une brasserie laïque ayant un lien juridique via un contrat avec une abbaye existante pour l’emploi de son nom. La commercialisation est faite par la brasserie laïque qui doit payer des royalties à l’abbaye ou à l'ordre concernés qui doit soutenir des œuvres caritatives et doit être fondé sur un fonds historique (l’abbaye en question doit avoir existé dans le passé et doit avoir brassé) et l’abbaye exerce un droit de contrôle en matière de publicité[1].
+Soit la bière est brassée par une brasserie laïque ayant un lien juridique via un contrat avec une abbaye existante pour l’emploi de son nom. La commercialisation est faite par la brasserie laïque qui doit payer des royalties à l’abbaye ou à l'ordre concernés qui doit soutenir des œuvres caritatives et doit être fondé sur un fonds historique (l’abbaye en question doit avoir existé dans le passé et doit avoir brassé) et l’abbaye exerce un droit de contrôle en matière de publicité.
 Il existe aujourd'hui 23 marques de bières belges d'abbaye reconnues et plus de 90 bières différentes. La Sint-Pietersabdij n'est actuellement plus produite.
 </t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Abbaye et brasserie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En réalité, seules deux bières d'abbaye reconnues sont actuellement brassées et produites dans des brasseries situées au sein même de l'abbaye mère ou de leurs ruines réaménagées. Il s'agit des bières du Val-Dieu à Aubel et de l'Abbaye d'Aulne à Gozée. 
 Par ailleurs, la St Feuillien est brassée au centre du village du Rœulx à quelques centaines de mètres de l'abbaye éponyme et la Ter Dolen est produite à la brasserie du château Den Dool, ancienne résidence d'été des abbés de Saint-Trond.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Liste des bières belges d'abbaye reconnues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste officielle au 1er février 2015.
 (*) commercialisées en Belgique.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Autres bières belges d'abbaye</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres bières belges d'abbaye peuvent toujours recevoir l'appellation bière d'abbaye mais n'ont pas l'autorisation d'imprimer le logo officiel sur l'étiquette. Une trentaine de marques sont concernées. Parmi celles-ci, se trouvent la Tripel Karmeliet, la St Bernardus, la Saint Benoît, la Pater Lieven, la Witkap Pater ou la Corsendonk.
 </t>
@@ -660,7 +682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_belge_d%27Abbaye_reconnue</t>
+          <t>Bière_belge_d'Abbaye_reconnue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,7 +700,9 @@
           <t>Autres labels brassicoles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Authentic Trappist Product
 Belgian Family Brewers
